--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1496,22 +1496,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1496,22 +1496,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
